--- a/examples/owlplanner/HFP_kim+sam.xlsx
+++ b/examples/owlplanner/HFP_kim+sam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdlacasse/Owl/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4D7348-C72A-4C55-9A6D-CAA3A70EB57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58276811-1CAB-8E47-B17E-9389F84BBA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -470,20 +470,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="2" customWidth="1"/>
-    <col min="2" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="13" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="2" customWidth="1"/>
+    <col min="2" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="13" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -512,9 +512,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>2020</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2021</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -525,9 +525,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2021</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2022</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -538,9 +538,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2022</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2023</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -551,9 +551,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2023</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2024</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -564,9 +564,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2024</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2025</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -577,9 +577,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2025</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2026</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -590,9 +590,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2026</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2027</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -603,9 +603,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2027</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2028</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -616,9 +616,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2028</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2029</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -629,9 +629,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2029</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2030</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -642,9 +642,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2030</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2031</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -655,9 +655,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2031</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2032</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -668,9 +668,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2032</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2033</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -681,9 +681,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2033</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2034</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -694,9 +694,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2034</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2035</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -707,9 +707,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2035</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2036</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -720,9 +720,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2036</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2037</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -733,9 +733,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2037</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2038</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -746,9 +746,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2038</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2039</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -759,9 +759,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2039</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2040</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -772,9 +772,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2040</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2041</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -785,9 +785,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>2041</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2042</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -798,9 +798,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2042</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2043</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -811,9 +811,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>2043</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2044</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -824,9 +824,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>2044</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2045</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -837,9 +837,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>2045</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2046</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -850,9 +850,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>2046</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2047</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -863,9 +863,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>2047</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2048</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -876,9 +876,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>2048</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2049</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -889,9 +889,9 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>2049</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2050</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -902,9 +902,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>2050</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2051</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -915,9 +915,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>2051</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2052</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -928,9 +928,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>2052</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2053</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -941,9 +941,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>2053</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2054</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -954,9 +954,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>2054</v>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2055</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -967,18 +967,13 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>2056</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>2057</v>
       </c>
     </row>
@@ -990,19 +985,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7EE4-731B-47FB-9A4E-667972814602}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="2" customWidth="1"/>
-    <col min="2" max="9" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="2" customWidth="1"/>
+    <col min="2" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1031,9 +1026,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>2020</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2021</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1044,9 +1039,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2021</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2022</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1057,9 +1052,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2022</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2023</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1070,9 +1065,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2023</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2024</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1083,9 +1078,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2024</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2025</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1096,9 +1091,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2025</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2026</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1109,9 +1104,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2026</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2027</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1122,9 +1117,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2027</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2028</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1135,9 +1130,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2028</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2029</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1148,9 +1143,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2029</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2030</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1161,9 +1156,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2030</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2031</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1174,9 +1169,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2031</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2032</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1187,9 +1182,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2032</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2033</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1200,9 +1195,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2033</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2034</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1213,9 +1208,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2034</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2035</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1226,9 +1221,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2035</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2036</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1239,9 +1234,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2036</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2037</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1252,9 +1247,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2037</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2038</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1265,9 +1260,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2038</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2039</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1278,9 +1273,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2039</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2040</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1291,9 +1286,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2040</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2041</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1304,9 +1299,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>2041</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2042</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1317,9 +1312,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2042</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2043</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1330,9 +1325,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>2043</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2044</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1343,9 +1338,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>2044</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2045</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1356,9 +1351,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>2045</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2046</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1369,9 +1364,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>2046</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2047</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1382,9 +1377,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>2047</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2048</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1395,9 +1390,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>2048</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2049</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1408,9 +1403,9 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>2049</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2050</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1421,9 +1416,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>2050</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2051</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1434,9 +1429,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>2051</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2052</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1447,9 +1442,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>2052</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2053</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1460,9 +1455,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>2053</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2054</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1473,9 +1468,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>2054</v>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2055</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1486,9 +1481,9 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>2055</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2056</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1499,9 +1494,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>2056</v>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2057</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1511,11 +1506,6 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>2057</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1527,12 +1517,12 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1562,15 +1552,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82375A5-ECB3-4F99-92D3-C7FB0B0D14F3}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1580,19 +1570,22 @@
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/examples/owlplanner/HFP_kim+sam.xlsx
+++ b/examples/owlplanner/HFP_kim+sam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdlacasse/Owl/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdlacasse/study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58276811-1CAB-8E47-B17E-9389F84BBA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136CB4CC-04B9-C245-84DD-D69AD2241080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>residence</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82375A5-ECB3-4F99-92D3-C7FB0B0D14F3}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1589,6 +1595,35 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>400000</v>
+      </c>
+      <c r="F2">
+        <v>600000</v>
+      </c>
+      <c r="G2">
+        <v>3.6</v>
+      </c>
+      <c r="H2">
+        <v>2090</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
